--- a/Outputs/50-samples.xlsx
+++ b/Outputs/50-samples.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Results: अंबुजा सीमेंट ने लगाई मुनाफे की हैट्रिक, 242% बढ़ गई कमाई</t>
+          <t>अडाणी ग्रुप की कंपनी के प्रॉफिट में 157% की छप्परफाड़ बढ़ोतरी, रेवेन्यू और नेटवर्थ में भी तेजी</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.zeebiz.com/hindi/companies/ambuja-cements-q3-results-hits-a-hat-trick-of-profits-earnings-surge-by-242-to-rs-1758-crore-199863</t>
+          <t>https://www.indiatv.in/paisa/business/adani-group-company-ambuja-cements-profit-increased-by-157-percent-revenue-and-net-worth-also-increased-2025-01-29-1109143</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ambuja Cement Q3 Results: शानदार रही कंपनी की परफॉर्मेंस, नेट प्रॉफिट में 242% की बढ़ोतरी</t>
+          <t>Ambuja Cements Q3 Results: अंबुजा सीमेंट ने लगाई मुनाफे की हैट्रिक, 242% बढ़ गई कमाई</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-net-profit-surges-242-percent-to-rs-1758-crore-1953896.html</t>
+          <t>https://www.zeebiz.com/hindi/companies/ambuja-cements-q3-results-hits-a-hat-trick-of-profits-earnings-surge-by-242-to-rs-1758-crore-199863</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>अंबुजा सीमेंट्स और अदाणी सीमेंटेशन के मर्जर को BSE, NSE से मिला 'नो ऑब्जेक्शन'</t>
+          <t>Ambuja Cement Q3 Results: शानदार रही कंपनी की परफॉर्मेंस, नेट प्रॉफिट में 242% की बढ़ोतरी</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://ndtv.in/business-news/adani-group-owned-ambuja-cements-merger-with-adani-cementation-bse-nse-issue-no-objection-7381598</t>
+          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-net-profit-surges-242-percent-to-rs-1758-crore-1953896.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>बजट 2025 से सीमेंट सेक्टर की बढ़ सकती है चमक; ब्रोकरेज ने इस Cement Stock से जताया तेजी की उम्मीद</t>
+          <t>Ambuja Cements-Sanghi Industries Merger: अंबुजा सीमेंट्स-सांघी इंडस्ट्रीज का मर्जर, अडानी समूह का बड़ा कदम</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://hindi.economictimes.com/wealth/bachat/before-budget-2025-cement-stock-idea-brokerages-incred-given-add-rating-on-ambuja-cements-share-check-ambuja-cements-share-target-price/articleshow/117797821.cms</t>
+          <t>https://www.abplive.com/business/ambuja-cements-sanghi-industries-merger-a-big-move-by-adani-group-gautam-adani-news-2844371</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Results: दिसंबर तिमाही में मुनाफे में 157% का उछाल</t>
+          <t>बजट 2025 से सीमेंट सेक्टर की बढ़ सकती है चमक; ब्रोकरेज ने इस Cement Stock से जताया तेजी की उम्मीद</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://ndtv.in/business-news/ambuja-cements-net-profit-more-than-doubles-in-q3-7586743</t>
+          <t>https://hindi.economictimes.com/wealth/bachat/before-budget-2025-cement-stock-idea-brokerages-incred-given-add-rating-on-ambuja-cements-share-check-ambuja-cements-share-target-price/articleshow/117797821.cms</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>अडानी ग्रुप के 1.28 लाख करोड़ रु मार्केट कैप वाले स्टॉक पर मोतीलाल ओसवाल बुलिश, कहा, सस्ता मिल रहा है, 38% के टारगेट</t>
+          <t>अंबुजा सीमेंट्स और अदाणी सीमेंटेशन के मर्जर को BSE, NSE से मिला 'नो ऑब्जेक्शन'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://hindi.economictimes.com/markets/share-bazaar/ambuja-cements-share-price-motilal-oswal-bulish-valuation-attractive-target-price/articleshow/115890927.cms</t>
+          <t>https://ndtv.in/business-news/adani-group-owned-ambuja-cements-merger-with-adani-cementation-bse-nse-issue-no-objection-7381598</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ambuja Cement Q3 Results: दिसंबर तिमाही में तीन गुना बढ़ा मुनाफा, लेकिन फिर भी टूटे शेयर</t>
+          <t>अडानी ग्रुप के 1.28 लाख करोड़ रु मार्केट कैप वाले स्टॉक पर मोतीलाल ओसवाल बुलिश, कहा, सस्ता मिल रहा है, 38% के टारगेट</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-results-reports-242-percent-jump-in-q3-net-profit-but-shares-sink-5-percent-1954096.html</t>
+          <t>https://hindi.economictimes.com/markets/share-bazaar/ambuja-cements-share-price-motilal-oswal-bulish-valuation-attractive-target-price/articleshow/115890927.cms</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>अडाणी ग्रुप की कंपनी के प्रॉफिट में 157% की छप्परफाड़ बढ़ोतरी, रेवेन्यू और नेटवर्थ में भी तेजी</t>
+          <t>Ambuja Cement Q3 Results: दिसंबर तिमाही में तीन गुना बढ़ा मुनाफा, लेकिन फिर भी टूटे शेयर</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.indiatv.in/paisa/business/adani-group-company-ambuja-cements-profit-increased-by-157-percent-revenue-and-net-worth-also-increased-2025-01-29-1109143</t>
+          <t>https://hindi.moneycontrol.com/news/company/company-results/ambuja-cement-q3-results-reports-242-percent-jump-in-q3-net-profit-but-shares-sink-5-percent-1954096.html</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ambuja Cements-Sanghi Industries Merger: अंबुजा सीमेंट्स-सांघी इंडस्ट्रीज का मर्जर, अडानी समूह का बड़ा कदम</t>
+          <t>Adani Group News: Ambuja Cements का बड़ा प्लान, खरीदेगी Orient Cement की 46% हिस्सेदारी, फिर करेगी यह काम</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.abplive.com/business/ambuja-cements-sanghi-industries-merger-a-big-move-by-adani-group-gautam-adani-news-2844371</t>
+          <t>https://hindi.moneycontrol.com/news/markets/adani-group-news-ambuja-cements-to-acquire-over-46-percent-stake-in-orient-cement-from-promoters-public-at-rupee-8100-crore-valuation-1931832.html</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adani Group News: Ambuja Cements का बड़ा प्लान, खरीदेगी Orient Cement की 46% हिस्सेदारी, फिर करेगी यह काम</t>
+          <t>Ambuja Cements Q3 Results: दिसंबर तिमाही में मुनाफे में 157% का उछाल</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://hindi.moneycontrol.com/news/markets/adani-group-news-ambuja-cements-to-acquire-over-46-percent-stake-in-orient-cement-from-promoters-public-at-rupee-8100-crore-valuation-1931832.html</t>
+          <t>https://ndtv.in/business-news/ambuja-cements-net-profit-more-than-doubles-in-q3-7586743</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Adani Group Acquires Penna Cement: अदानी समूहाने 10,422 कोटी</t>
+          <t>डील पक्की... गौतम अदानींनी विकत घेतली सिमेंट क्षेत्रातील 'ही' मोठी कंपनी कितीचा</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://marathi.latestly.com/india/adani-group-acquired-penna-cement-company-for-rs-10422-crore-555927.html</t>
+          <t>https://marathi.abplive.com/business/gautam-adani-adani-group-company-ambuja-cement-acquires-sanghi-industries-share-value-rise-know-details-1197991</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>अदानींनी घेतली आणखी एक सिमेंट कंपनी, शेअर्स विक्रमी उच्चांकावर</t>
+          <t>अदानींच्या अंबुजा सिमेंटकडून विकत घेतली जाणार, देशातील 'ही' प्रमख सिमेंट कंपनी !</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/business-news/ambuja-cements-signs-agreement-to-buy-orient-cement-limited-for-rs-8100-crore/articleshow/114450514.cms</t>
+          <t>https://www.navarashtra.com/business/adanis-ambuja-cement-will-be-bought-orient-cement-prominent-cement-company-in-the-country-670783.html</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>अदानींच्या अंबुजा सिमेंटकडून विकत घेतली जाणार, देशातील 'ही' प्रमख सिमेंट कंपनी !</t>
+          <t>‘अंबुजा’ मध्ये संघी इंडस्ट्रीज-पेन्ना सिमेंट होणार विलीन</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.navarashtra.com/business/adanis-ambuja-cement-will-be-bought-orient-cement-prominent-cement-company-in-the-country-670783.html</t>
+          <t>https://www.tarunbharat.com/sanghi-industries-penna-cement-to-be-merged-into-ambuja/</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>अंबुजा सिमेंटमध्ये मोठ्या घडामोडींमुळे सांघी इंडस्ट्रीजच्या शेअर धारकांना होणार फायदा</t>
+          <t>अदानींनी घेतली आणखी एक सिमेंट कंपनी, शेअर्स विक्रमी उच्चांकावर</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.loksatta.com/business/finance/sanghi-industries-shareholders-will-benefit-from-major-developments-in-ambuja-cement-print-eco-news-amy-95-4774937/</t>
+          <t>https://marathi.economictimes.com/business-news/ambuja-cements-signs-agreement-to-buy-orient-cement-limited-for-rs-8100-crore/articleshow/114450514.cms</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>गौतम अदानी यांचा एक निर्णय आणि कंपनीसह गुंतवणूकदार झाले मालामाल</t>
+          <t>Adani Group Acquires Penna Cement: अदानी समूहाने 10,422 कोटी</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.tv9marathi.com/business/gautam-adanis-decision-doubles-ambuja-cement-profit-investor-goods-with-the-company-in-one-day-1172497.html</t>
+          <t>https://marathi.latestly.com/india/adani-group-acquired-penna-cement-company-for-rs-10422-crore-555927.html</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>चंद्रपूर : अंबुजा सिमेंटच्या लाईमस्टोन खाणीमुळे प्रदूषणात वाढ; दहा ते पंधरा गावांना…</t>
+          <t>अदानी समूहाने घेतली आणखी एका सिमेंट कंपनी, 10 हजार 422 कोटींमध्ये झाला करार</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.loksatta.com/nagpur/ambuja-cements-maratha-limestone-mine-in-lakhmapur-korpana-taluka-will-cause-severe-pollution-affecting-nearby-villages-rsj-74-sud-02-4863879/</t>
+          <t>https://marathi.economictimes.com/business-news/adani-groups-ambuja-cement-announced-acquisition-of-penna-cement-industries-limited-for-rs-10422-crore/articleshow/110973998.cms</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>अदानी थांबायचं नावच घेईनात! आणखी एक सिमेंट कंपनी ताब्यात घेणार, शेअर सुस्साट सुटले!</t>
+          <t>चंद्रपूर : अंबुजा सिमेंटच्या लाईमस्टोन खाणीमुळे प्रदूषणात वाढ; दहा ते पंधरा गावांना…</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://marathi.hindustantimes.com/business/ambuja-cements-to-acquire-orient-cement-for-rs-8-100-crore-share-rises-after-news-141729576128813.html</t>
+          <t>https://www.loksatta.com/nagpur/ambuja-cements-maratha-limestone-mine-in-lakhmapur-korpana-taluka-will-cause-severe-pollution-affecting-nearby-villages-rsj-74-sud-02-4863879/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>अदानी समूहाने घेतली आणखी एका सिमेंट कंपनी, 10 हजार 422 कोटींमध्ये झाला करार</t>
+          <t>गौतम अदानी यांचा एक निर्णय आणि कंपनीसह गुंतवणूकदार झाले मालामाल</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://marathi.economictimes.com/business-news/adani-groups-ambuja-cement-announced-acquisition-of-penna-cement-industries-limited-for-rs-10422-crore/articleshow/110973998.cms</t>
+          <t>https://www.tv9marathi.com/business/gautam-adanis-decision-doubles-ambuja-cement-profit-investor-goods-with-the-company-in-one-day-1172497.html</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>डील पक्की... गौतम अदानींनी विकत घेतली सिमेंट क्षेत्रातील 'ही' मोठी कंपनी कितीचा</t>
+          <t>अंबुजा सिमेंटमध्ये मोठ्या घडामोडींमुळे सांघी इंडस्ट्रीजच्या शेअर धारकांना होणार फायदा</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://marathi.abplive.com/business/gautam-adani-adani-group-company-ambuja-cement-acquires-sanghi-industries-share-value-rise-know-details-1197991</t>
+          <t>https://www.loksatta.com/business/finance/sanghi-industries-shareholders-will-benefit-from-major-developments-in-ambuja-cement-print-eco-news-amy-95-4774937/</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>‘अंबुजा’ मध्ये संघी इंडस्ट्रीज-पेन्ना सिमेंट होणार विलीन</t>
+          <t>अदानी थांबायचं नावच घेईनात! आणखी एक सिमेंट कंपनी ताब्यात घेणार, शेअर सुस्साट सुटले!</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.tarunbharat.com/sanghi-industries-penna-cement-to-be-merged-into-ambuja/</t>
+          <t>https://marathi.hindustantimes.com/business/ambuja-cements-to-acquire-orient-cement-for-rs-8-100-crore-share-rises-after-news-141729576128813.html</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ambuja Cements to merge Sanghi Industries, Penna Cement with itself</t>
+          <t>Ambuja Cements Shows Short-Term Reversal Amid Long-Term Bearish Trends</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.thehindu.com/business/ambuja-cements-to-merge-sanghi-industries-penna-cement-with-itself/article68996624.ece</t>
+          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-gains-3-18-on-february-4-2025-despite-recent-decline-2-748842</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ambuja Cements Net Profit Surges 157% YoY To Rs 2,115 Cr In Q3</t>
+          <t>Sanghi Industries Shares: Falls on merger swap ratio with Ambuja Cements</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.businessworld.in/article/ambuja-cements-net-profit-surges-157-yoy-to-rs-2115-cr-in-q3-546353</t>
+          <t>https://www.thehindubusinessline.com/companies/sanghi-ind-shares-fall-on-merger-swap-ratio-with-ambuja-cements/article68999498.ece</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Results: Sharp contraction in margins, other income aids profit</t>
+          <t>Jupiter Wagons secures major order from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/ambuja-cements-q3-results-profit-other-income-grants-margin-ebitda-per-tonne-volumes-share-price-reaction-19548311.htm</t>
+          <t>https://www.constructionweekonline.in/business/jupiter-wagons-secures-major-order-from-ambuja-cements-and-acc</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AMBUJA CEMENTS REPORTED NET PROFIT OF RS 2620 CRORE</t>
+          <t>Ambuja Cements releases 2025 third quarter financial results</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.icicidirect.com/research/equity/trending-news/ambuja-cements-reported-net-profit-of-rs-2620-crore</t>
+          <t>https://www.globalcement.com/news/item/18365-ambuja-cements-releases-2025-third-quarter-financial-results</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ambuja Cements Faces Continued Stock Decline Amid Market Challenges</t>
+          <t>Titagarh Rail Secures Order From Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-3-19-amid-sustained-underperformance-and-losses-990676</t>
+          <t>https://www.equitypandit.com/titagarh-rail-secures-order-from-ambuja-cements-and-acc/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ambuja Cements Faces Continued Stock Decline Amid Broader Market Challenges</t>
+          <t>Ambuja Q3 profit up 140% to ₹2,620 cr, eyes 118 MTPA capacity by FY26’</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-4-06-amid-broader-market-challenges-461245</t>
+          <t>https://www.fortuneindia.com/enterprise/ambuja-cements-q3-profit-up-140-to-2620-cr-eyes-118-mtpa-capacity-by-fy26/120211</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 results: Net profit more than doubles on Government sops</t>
+          <t>AMBUJA CEMENTS REPORTED NET PROFIT OF RS 2620 CRORE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-q3-results-net-profit-more-than-doubles-on-government-sops/article69155173.ece</t>
+          <t>https://www.icicidirect.com/research/equity/trending-news/ambuja-cements-reported-net-profit-of-rs-2620-crore</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ambuja Cements-Adani merger receives no objection letter from stock exchanges</t>
+          <t>Jupiter Wagons shares in focus on signing Rs 600 cr contract with Ambuja Cements, ACC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://legal.economictimes.indiatimes.com/news/corporate-business/ambuja-cements-adani-merger-receives-no-objection-letter-from-stock-exchanges/116885509</t>
+          <t>https://m.economictimes.com/markets/stocks/news/jupiter-wagons-shares-in-focus-on-signing-rs-600-cr-contract-with-ambuja-cements-acc/articleshow/118163198.cms</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jupiter Wagons Secures ₹600 Crore Contract from Ambuja Cements and ACC</t>
+          <t>Sanghi Industries merger: Prefer Ambuja Cements to ACC, 65% upside possible on Adani stock, says Investec</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://themachinemaker.com/news/jupiter-wagons-secures-%E2%82%B9600-crore-contract-from-ambuja-cements-and-acc/</t>
+          <t>https://www.businesstoday.in/markets/stocks/story/sanghi-industries-merger-prefer-ambuja-cements-to-acc-65-upside-possible-on-adani-stock-says-investec-457709-2024-12-18</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jupiter Wagons shares in focus on signing Rs 600 cr contract with Ambuja Cements, ACC</t>
+          <t>Ambuja Cements Shares Tank Over 4% Despite 242% Jump in Q3 Net Profit: Here's Why</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://m.economictimes.com/markets/stocks/news/jupiter-wagons-shares-in-focus-on-signing-rs-600-cr-contract-with-ambuja-cements-acc/articleshow/118163198.cms</t>
+          <t>https://www.outlookbusiness.com/markets/ambuja-cements-shares-tank-over-4-despite-242-jump-in-q3-net-profit-heres-why</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ambuja Cements releases 2025 third quarter financial results</t>
+          <t>Ambuja Cements Faces Continued Stock Decline Amid Market Challenges</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.globalcement.com/news/item/18365-ambuja-cements-releases-2025-third-quarter-financial-results</t>
+          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-3-19-amid-sustained-underperformance-and-losses-990676</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Adani-owned Ambuja Cements posts Q3 profit surge of 140.21% to Rs 2,620.09 crore, records highest ever cement sales</t>
+          <t>Jupiter Wagons Secures ₹600 Crore Contract from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.financialexpress.com/business/industry-adani-owned-ambuja-cements-posts-q3-profit-surge-of-140-21-to-rs-262009-crore-records-highest-ever-cement-sales-3729963/</t>
+          <t>https://themachinemaker.com/news/jupiter-wagons-secures-%E2%82%B9600-crore-contract-from-ambuja-cements-and-acc/</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UltraTech, JK Cements &amp; Ambuja Cements: Axis shares top 3 stock picks from cement space with up to 29% upside</t>
+          <t>Ambuja Cements-Adani merger receives no objection letter from stock exchanges</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/stocks/story/ultratech-jk-cements-ambuja-cements-axis-shares-top-3-stock-picks-from-cement-space-with-29-upside-464054-2025-02-10</t>
+          <t>https://legal.economictimes.indiatimes.com/news/corporate-business/ambuja-cements-adani-merger-receives-no-objection-letter-from-stock-exchanges/116885509</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ambuja Cements’ net profit more than doubles in Q3</t>
+          <t>Ambuja Cements Q3 earnings: Net profit rises 242%, revenue at Rs 8,415 crore</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.sarkaritel.com/ambuja-cements-net-profit-more-than-doubles-in-q3/</t>
+          <t>https://www.businesstoday.in/markets/company-stock/story/ambuja-cements-q3-earnings-net-profit-rises-242-revenue-at-rs-8415-crore-462441-2025-01-29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 Result FY2025: PAT zooms by 250% QoQ to Rs 1758 cr; check revenue, EBITDA, margins</t>
+          <t>Ambuja Cements’ net profit more than doubles in Q3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.etnownews.com/markets/ambuja-cements-q3-result-fy2025-pat-zooms-by-250-qoq-to-rs-1758-cr-check-revenue-ebitda-margins-article-117677383</t>
+          <t>https://www.sarkaritel.com/ambuja-cements-net-profit-more-than-doubles-in-q3/</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ambuja Q3 profit up 140% to ₹2,620 cr, eyes 118 MTPA capacity by FY26’</t>
+          <t>Ambuja Cements Q3 Results: Sharp contraction in margins, other income aids profit</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.fortuneindia.com/enterprise/ambuja-cements-q3-profit-up-140-to-2620-cr-eyes-118-mtpa-capacity-by-fy26/120211</t>
+          <t>https://www.cnbctv18.com/market/ambuja-cements-q3-results-profit-other-income-grants-margin-ebitda-per-tonne-volumes-share-price-reaction-19548311.htm</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Titagarh Rail wins order worth ₹537 crore from Ambuja Cements and ACC</t>
+          <t>Ambuja Cements Q3 Result FY2025: PAT zooms by 250% QoQ to Rs 1758 cr; check revenue, EBITDA, margins</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/titagarh-rail-share-price-wins-order-ambuja-cements-acc-stock-reaction-19557435.htm</t>
+          <t>https://www.etnownews.com/markets/ambuja-cements-q3-result-fy2025-pat-zooms-by-250-qoq-to-rs-1758-cr-check-revenue-ebitda-margins-article-117677383</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sanghi Industries merger: Prefer Ambuja Cements to ACC, 65% upside possible on Adani stock, says Investec</t>
+          <t>Adani-owned Ambuja Cements posts Q3 profit surge of 140.21% to Rs 2,620.09 crore, records highest ever cement sales</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/stocks/story/sanghi-industries-merger-prefer-ambuja-cements-to-acc-65-upside-possible-on-adani-stock-says-investec-457709-2024-12-18</t>
+          <t>https://www.financialexpress.com/business/industry-adani-owned-ambuja-cements-posts-q3-profit-surge-of-140-21-to-rs-262009-crore-records-highest-ever-cement-sales-3729963/</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>I-T refund propels Ambuja Cement’s Q3 PAT to ₹2,620 crore</t>
+          <t>Ambuja Cements to merge Sanghi Industries, Penna Cement with itself</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.thehindu.com/business/i-t-refund-propels-ambuja-cements-q3-pat-to-2620-crore/article69155221.ece</t>
+          <t>https://www.thehindu.com/business/ambuja-cements-to-merge-sanghi-industries-penna-cement-with-itself/article68996624.ece</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ambuja Cements Q3 earnings: Net profit rises 242%, revenue at Rs 8,415 crore</t>
+          <t>Ambuja Cements share price: Stock down 24% in 6 months; brokerage sees 20% UPSIDE!</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.businesstoday.in/markets/company-stock/story/ambuja-cements-q3-earnings-net-profit-rises-242-revenue-at-rs-8415-crore-462441-2025-01-29</t>
+          <t>https://www.etnownews.com/markets/ambuja-cements-share-price-stock-down-24-in-6-months-brokerage-sees-20-upside-article-117744407</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2096,12 +2096,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ambuja Cements share price: Stock down 24% in 6 months; brokerage sees 20% UPSIDE!</t>
+          <t>UltraTech, JK Cements &amp; Ambuja Cements: Axis shares top 3 stock picks from cement space with up to 29% upside</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.etnownews.com/markets/ambuja-cements-share-price-stock-down-24-in-6-months-brokerage-sees-20-upside-article-117744407</t>
+          <t>https://www.businesstoday.in/markets/stocks/story/ultratech-jk-cements-ambuja-cements-axis-shares-top-3-stock-picks-from-cement-space-with-29-upside-464054-2025-02-10</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Titagarh Rail Secures Order From Ambuja Cements and ACC</t>
+          <t>I-T refund propels Ambuja Cement’s Q3 PAT to ₹2,620 crore</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.equitypandit.com/titagarh-rail-secures-order-from-ambuja-cements-and-acc/</t>
+          <t>https://www.thehindu.com/business/i-t-refund-propels-ambuja-cements-q3-pat-to-2620-crore/article69155221.ece</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jupiter Wagons secures major order from Ambuja Cements and ACC</t>
+          <t>Titagarh Rail wins order worth ₹537 crore from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.constructionweekonline.in/business/jupiter-wagons-secures-major-order-from-ambuja-cements-and-acc</t>
+          <t>https://www.cnbctv18.com/market/titagarh-rail-share-price-wins-order-ambuja-cements-acc-stock-reaction-19557435.htm</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ambuja Cements Shows Short-Term Reversal Amid Long-Term Bearish Trends</t>
+          <t>Jupiter Wagons secures order worth ₹600 crore from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-gains-3-18-on-february-4-2025-despite-recent-decline-2-748842</t>
+          <t>https://www.cnbctv18.com/market/stocks/jupiter-wagons-share-price-secures-order-worth-rs-600-crore-from-ambuja-cements-and-acc-19557003.htm</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sanghi Industries Shares: Falls on merger swap ratio with Ambuja Cements</t>
+          <t>Why has Motilal Oswal cut target price for Ambuja Cements? 3 reasons are... - Market News</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.thehindubusinessline.com/companies/sanghi-ind-shares-fall-on-merger-swap-ratio-with-ambuja-cements/article68999498.ece</t>
+          <t>https://www.financialexpress.com/market/why-has-motilal-oswal-cut-target-price-for-ambuja-cements-3-reasons-are-3730997/</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ambuja Cements records net profit of Rs 2,620.09 crore in Q3 FY25</t>
+          <t>Ambuja Cements Q3 results: Net profit more than doubles on Government sops</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-records-net-profit-of-rs-2620-09-crore-in-q3-fy25/117690560</t>
+          <t>https://www.thehindubusinessline.com/companies/ambuja-cements-q3-results-net-profit-more-than-doubles-on-government-sops/article69155173.ece</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jupiter Wagons Secures Rs 6 Billion Order from Ambuja Cements and ACC</t>
+          <t>Ambuja Cements Faces Continued Stock Decline Amid Broader Market Challenges</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.constructionworld.in/cement-news/jupiter-wagons-secures-rs-6-billion-order-from-ambuja-cements-and-acc/69012</t>
+          <t>https://www.marketsmojo.com/news/stocks-in-action/ambuja-cements-stock-declines-4-06-amid-broader-market-challenges-461245</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ambuja Cements Shares Tank Over 4% Despite 242% Jump in Q3 Net Profit: Here's Why</t>
+          <t>Jupiter Wagons Secures Rs 6 Billion Order from Ambuja Cements and ACC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.outlookbusiness.com/markets/ambuja-cements-shares-tank-over-4-despite-242-jump-in-q3-net-profit-heres-why</t>
+          <t>https://www.constructionworld.in/cement-news/jupiter-wagons-secures-rs-6-billion-order-from-ambuja-cements-and-acc/69012</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jupiter Wagons secures order worth ₹600 crore from Ambuja Cements and ACC</t>
+          <t>Ambuja Cements Net Profit Surges 157% YoY To Rs 2,115 Cr In Q3</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.cnbctv18.com/market/stocks/jupiter-wagons-share-price-secures-order-worth-rs-600-crore-from-ambuja-cements-and-acc-19557003.htm</t>
+          <t>https://www.businessworld.in/article/ambuja-cements-net-profit-surges-157-yoy-to-rs-2115-cr-in-q3-546353</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Why has Motilal Oswal cut target price for Ambuja Cements? 3 reasons are... - Market News</t>
+          <t>Ambuja Cements records net profit of Rs 2,620.09 crore in Q3 FY25</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.financialexpress.com/market/why-has-motilal-oswal-cut-target-price-for-ambuja-cements-3-reasons-are-3730997/</t>
+          <t>https://realty.economictimes.indiatimes.com/news/cement/ambuja-cements-records-net-profit-of-rs-2620-09-crore-in-q3-fy25/117690560</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
